--- a/Test cases.xlsx
+++ b/Test cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f8f2dfbbde6d1f2/Documents/Learning Documents/NTT Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="11_F25DC773A252ABDACC10488461DC72D85ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74F05125-C1B4-4237-A584-63C3564666D1}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="11_F25DC773A252ABDACC10488461DC72D85ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E721770B-458A-4D39-8B97-AC5D91DF1235}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -48,15 +48,9 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>TC01</t>
   </si>
   <si>
-    <t>1. Navigate to the home page.</t>
-  </si>
-  <si>
     <t>TC02</t>
   </si>
   <si>
@@ -99,15 +93,6 @@
     <t>TC10</t>
   </si>
   <si>
-    <t>Verify Advertisement Display</t>
-  </si>
-  <si>
-    <t>Advertisements should be displayed correctly without obstructing other content.</t>
-  </si>
-  <si>
-    <t>2. Check the advertisements displayed on the page.</t>
-  </si>
-  <si>
     <t>Verify the homepage loads correctly</t>
   </si>
   <si>
@@ -150,9 +135,6 @@
     <t xml:space="preserve"> The scores should be accurate and in sync with the actual match</t>
   </si>
   <si>
-    <t xml:space="preserve"> The articles should be tagged with relevant keywords</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The video content should load and play without any issues</t>
   </si>
   <si>
@@ -195,12 +177,6 @@
     <t>The video player should function as expected (play, pause, volume control, etc.)</t>
   </si>
   <si>
-    <t>The search results should be relevant and accurate</t>
-  </si>
-  <si>
-    <t>2. Locate Live Scores menu option, under that navigate to Schedule option, click on it and check the schedule for a specific series or tournament</t>
-  </si>
-  <si>
     <t>Verify the website is responsive and works across devices</t>
   </si>
   <si>
@@ -213,9 +189,6 @@
     <t>2. Click on each of the links and check that you are navigated to the correct social media link/page.</t>
   </si>
   <si>
-    <t>TC11</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -223,9 +196,6 @@
   </si>
   <si>
     <t>2. Scroll through the slick cards to locate a live match, click on it to view the match details.</t>
-  </si>
-  <si>
-    <t>2. Locate the News section</t>
   </si>
   <si>
     <t xml:space="preserve"> The news articles should be categorized appropriately (e.g., Ball-tampering, Technology in cricket, The future of ODI's)</t>
@@ -243,9 +213,6 @@
     <t>3. Further we should be able to filter out specific format details like T20, ODI etc</t>
   </si>
   <si>
-    <t>Upon selecting appropraite filter conditions the corresponding data should be displayed.</t>
-  </si>
-  <si>
     <t>4. In case we are entering invalid search characters in the search field, we should get "No results found" message with appropriate description</t>
   </si>
   <si>
@@ -256,6 +223,22 @@
   <si>
     <t>Social media links should navigate to the correct pages.
 Example: If we click on Twitter(X) link, we should be navigated to ESPNcricinfo twitter (X) handle.</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>2. Locate the News section, click on it.</t>
+  </si>
+  <si>
+    <t>2. Locate Live Scores menu option, under that locate Schedule option, click on it and check the schedule for a specific series or tournament</t>
+  </si>
+  <si>
+    <t>Upon selecting appropriate filter conditions the corresponding data should be displayed.</t>
+  </si>
+  <si>
+    <t>The search results should display relevant information related to the player being searched.
+E.g. Player stats, Videos/Photos of the player etc.</t>
   </si>
 </sst>
 </file>
@@ -337,11 +320,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,485 +651,449 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>45</v>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>46</v>
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>45</v>
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>45</v>
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+    <row r="12" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>45</v>
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4" t="s">
-        <v>69</v>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>54</v>
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>45</v>
+      <c r="A21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+    <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>72</v>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>59</v>
+    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>45</v>
+      <c r="A27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
+  <mergeCells count="30">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
